--- a/workload_models/NFR-TestPlan_MOSIP_PreReg_RegProc_Updated_Latest.xlsx
+++ b/workload_models/NFR-TestPlan_MOSIP_PreReg_RegProc_Updated_Latest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Pre-Registration NFR Testing" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="120">
   <si>
     <t>Sl. No.</t>
   </si>
@@ -196,9 +196,6 @@
     <t>8 hr</t>
   </si>
   <si>
-    <t>900 users with  mixed registrations types (NEW, UPDATE, LOST, ACTIVATE, DEACTIVATE)</t>
-  </si>
-  <si>
     <t>Performance &amp; Load Testing (Stage I-upload of packets)
 Users=Reg client threads uploading packets</t>
   </si>
@@ -220,49 +217,7 @@
     <t>Performance &amp; Load Testing (Stage II-packet processing)</t>
   </si>
   <si>
-    <t>Distribution across auth requests</t>
-  </si>
-  <si>
-    <t>% transactions</t>
-  </si>
-  <si>
-    <t>Transactions per day</t>
-  </si>
-  <si>
-    <t>Transactions per hour</t>
-  </si>
-  <si>
     <t>Transactions per second</t>
-  </si>
-  <si>
-    <t>demo+uin( DOB+ name)</t>
-  </si>
-  <si>
-    <t>otp+uin</t>
-  </si>
-  <si>
-    <t>demo+vid (address + DOB)</t>
-  </si>
-  <si>
-    <t>otp+vid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> demo+otp+uin (fullname)</t>
-  </si>
-  <si>
-    <t>demo+otp+vid (fullname)</t>
-  </si>
-  <si>
-    <t>ekyc+otp+uin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ekyc+otp+vid </t>
-  </si>
-  <si>
-    <t>Distribution across e-KYC requests</t>
-  </si>
-  <si>
-    <t>Think Time (Expected)</t>
   </si>
   <si>
     <t>Auth transactions per day</t>
@@ -384,24 +339,15 @@
     <t>Appointment booking full flow</t>
   </si>
   <si>
-    <t>Enter demographic detail (New users)</t>
-  </si>
-  <si>
     <t>Edit  demographic details (Existing Users)</t>
   </si>
   <si>
     <t>Appointment booking for an existing application (Existing Users)</t>
   </si>
   <si>
-    <t>delete an application</t>
-  </si>
-  <si>
     <t>Appointment booking for application which has POI and POA docs already uploaded (Existing Users)</t>
   </si>
   <si>
-    <t>cancel appointment</t>
-  </si>
-  <si>
     <t>View acknowledgement</t>
   </si>
   <si>
@@ -454,13 +400,16 @@
   </si>
   <si>
     <t>ii)running a batch job for 80% consumed status and 20% cancelled enrollments status</t>
+  </si>
+  <si>
+    <t>Cancel and delete an application</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -475,19 +424,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF1F497D"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF1F497D"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -543,7 +479,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -616,35 +552,28 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -653,63 +582,13 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -718,21 +597,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -748,7 +612,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -757,41 +621,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -855,9 +684,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -922,39 +751,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -976,7 +772,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1003,46 +799,46 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1051,8 +847,20 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1073,55 +881,31 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1404,9 +1188,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -1420,15 +1204,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -1454,22 +1238,22 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="87" x14ac:dyDescent="0.35">
-      <c r="A3" s="67">
+      <c r="A3" s="60">
         <v>1</v>
       </c>
-      <c r="B3" s="68">
+      <c r="B3" s="61">
         <v>1</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="60" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="6">
         <v>100</v>
       </c>
-      <c r="F3" s="67" t="s">
+      <c r="F3" s="60" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="6" t="s">
@@ -1477,66 +1261,66 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="67"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
+      <c r="A4" s="60"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
       <c r="E4" s="6">
         <v>200</v>
       </c>
-      <c r="F4" s="67"/>
+      <c r="F4" s="60"/>
       <c r="G4" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="67"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
       <c r="E5" s="6">
         <v>500</v>
       </c>
-      <c r="F5" s="67"/>
+      <c r="F5" s="60"/>
       <c r="G5" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="67"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
       <c r="E6" s="6">
         <v>1000</v>
       </c>
-      <c r="F6" s="67"/>
+      <c r="F6" s="60"/>
       <c r="G6" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="67"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
+      <c r="A7" s="60"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
       <c r="E7" s="6">
         <v>1500</v>
       </c>
-      <c r="F7" s="67"/>
+      <c r="F7" s="60"/>
       <c r="G7" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="67"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
       <c r="E8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="67"/>
+      <c r="F8" s="60"/>
       <c r="G8" s="6" t="s">
         <v>24</v>
       </c>
@@ -1634,22 +1418,22 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="71">
+      <c r="A13" s="64">
         <v>6</v>
       </c>
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="71" t="s">
+      <c r="D13" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="76" t="s">
+      <c r="E13" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="72" t="s">
+      <c r="F13" s="55" t="s">
         <v>8</v>
       </c>
       <c r="G13" s="6" t="s">
@@ -1657,77 +1441,77 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="71"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="72"/>
+      <c r="A14" s="64"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="55"/>
       <c r="G14" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="71"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="72"/>
+      <c r="A15" s="64"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="55"/>
       <c r="G15" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="71"/>
-      <c r="B16" s="74"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="72"/>
+      <c r="A16" s="64"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="55"/>
       <c r="G16" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="71"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="72"/>
+      <c r="A17" s="64"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="55"/>
       <c r="G17" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="71"/>
-      <c r="B18" s="75"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="72"/>
+      <c r="A18" s="64"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="55"/>
       <c r="G18" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="A19" s="71">
+      <c r="A19" s="64">
         <v>7</v>
       </c>
-      <c r="B19" s="73" t="s">
+      <c r="B19" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="71" t="s">
+      <c r="C19" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="71" t="s">
+      <c r="D19" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="67" t="s">
+      <c r="E19" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="73" t="s">
+      <c r="F19" s="56" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="6" t="s">
@@ -1735,340 +1519,322 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="71"/>
-      <c r="B20" s="74"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="74"/>
+      <c r="A20" s="64"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="57"/>
       <c r="G20" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="71"/>
-      <c r="B21" s="75"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="75"/>
+      <c r="A21" s="64"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="58"/>
       <c r="G21" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="116" x14ac:dyDescent="0.35">
-      <c r="A22" s="71">
+    <row r="22" spans="1:7" ht="145" x14ac:dyDescent="0.35">
+      <c r="A22" s="64">
         <v>8</v>
       </c>
-      <c r="B22" s="73" t="s">
+      <c r="B22" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="71" t="s">
+      <c r="C22" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="71" t="s">
+      <c r="D22" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="68" t="s">
+      <c r="E22" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="71" t="s">
+      <c r="F22" s="64" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="71"/>
-      <c r="B23" s="75"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="71"/>
+    <row r="23" spans="1:7" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="64"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="64"/>
       <c r="G23" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="50" t="s">
-        <v>107</v>
-      </c>
-      <c r="D24" s="51"/>
-      <c r="E24" s="52"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="40"/>
+      <c r="E24" s="41"/>
       <c r="F24" s="1"/>
       <c r="G24" s="7"/>
     </row>
     <row r="25" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
-      <c r="B25" s="62" t="s">
-        <v>108</v>
-      </c>
-      <c r="C25" s="63" t="s">
-        <v>109</v>
-      </c>
-      <c r="D25" s="64" t="s">
-        <v>110</v>
-      </c>
-      <c r="E25" s="65" t="s">
-        <v>111</v>
+      <c r="B25" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" s="54" t="s">
+        <v>96</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="7"/>
     </row>
     <row r="26" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="B26" s="53">
+      <c r="B26" s="42">
         <v>1</v>
       </c>
-      <c r="C26" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="D26" s="54">
-        <v>650</v>
-      </c>
-      <c r="E26" s="55">
-        <v>0.25</v>
+      <c r="C26" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="43">
+        <v>910</v>
+      </c>
+      <c r="E26" s="44">
+        <v>0.35</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="B27" s="53">
-        <v>2</v>
-      </c>
-      <c r="C27" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="D27" s="54">
+      <c r="B27" s="42">
+        <v>3</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="43">
         <v>260</v>
       </c>
-      <c r="E27" s="55">
+      <c r="E27" s="44">
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="B28" s="53">
-        <v>3</v>
-      </c>
-      <c r="C28" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="D28" s="54">
+    <row r="28" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B28" s="42">
+        <v>4</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="43">
+        <v>390</v>
+      </c>
+      <c r="E28" s="44">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B29" s="42">
+        <v>5</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" s="43">
         <v>260</v>
       </c>
-      <c r="E28" s="55">
+      <c r="E29" s="44">
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B29" s="53">
-        <v>4</v>
-      </c>
-      <c r="C29" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="D29" s="54">
-        <v>390</v>
-      </c>
-      <c r="E29" s="55">
+    <row r="30" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="B30" s="42">
+        <v>6</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="43">
+        <v>130</v>
+      </c>
+      <c r="E30" s="44">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B31" s="45">
+        <v>7</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" s="43">
+        <v>260</v>
+      </c>
+      <c r="E31" s="44">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="46">
+        <v>8</v>
+      </c>
+      <c r="C32" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" s="48">
+        <v>364</v>
+      </c>
+      <c r="E32" s="49">
         <v>0.15</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B30" s="53">
-        <v>5</v>
-      </c>
-      <c r="C30" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="D30" s="54">
-        <v>130</v>
-      </c>
-      <c r="E30" s="55">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="B31" s="53">
-        <v>6</v>
-      </c>
-      <c r="C31" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="D31" s="54">
-        <v>130</v>
-      </c>
-      <c r="E31" s="55">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B32" s="53">
-        <v>8</v>
-      </c>
-      <c r="C32" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="D32" s="54">
-        <v>130</v>
-      </c>
-      <c r="E32" s="55">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B33" s="56">
-        <v>9</v>
-      </c>
-      <c r="C33" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="D33" s="54">
-        <v>260</v>
-      </c>
-      <c r="E33" s="55">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="57">
-        <v>10</v>
-      </c>
-      <c r="C34" s="58" t="s">
-        <v>120</v>
-      </c>
-      <c r="D34" s="59">
-        <v>364</v>
-      </c>
-      <c r="E34" s="60">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="8"/>
-      <c r="C35" s="45"/>
+    <row r="33" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="8"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="8"/>
+    </row>
+    <row r="34" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B34" s="37"/>
+      <c r="C34" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" s="50"/>
+      <c r="E34" s="41"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B35" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>105</v>
+      </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B36" s="48"/>
-      <c r="C36" s="63" t="s">
-        <v>121</v>
-      </c>
-      <c r="D36" s="61"/>
-      <c r="E36" s="52"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B37" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="C37" s="43" t="s">
-        <v>123</v>
+    <row r="36" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B36" s="21"/>
+      <c r="C36" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="8"/>
+    </row>
+    <row r="37" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B37" s="21"/>
+      <c r="C37" s="36" t="s">
+        <v>107</v>
       </c>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B38" s="21"/>
-      <c r="C38" s="47" t="s">
-        <v>124</v>
+      <c r="C38" s="36" t="s">
+        <v>108</v>
       </c>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B39" s="21"/>
-      <c r="C39" s="47" t="s">
-        <v>125</v>
+      <c r="C39" s="36" t="s">
+        <v>109</v>
       </c>
       <c r="D39" s="8"/>
     </row>
     <row r="40" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B40" s="21"/>
-      <c r="C40" s="47" t="s">
-        <v>126</v>
+      <c r="C40" s="36" t="s">
+        <v>110</v>
       </c>
       <c r="D40" s="8"/>
     </row>
     <row r="41" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B41" s="21"/>
-      <c r="C41" s="47" t="s">
-        <v>127</v>
+      <c r="C41" s="36" t="s">
+        <v>111</v>
       </c>
       <c r="D41" s="8"/>
     </row>
-    <row r="42" spans="2:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B42" s="21"/>
-      <c r="C42" s="47" t="s">
-        <v>128</v>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B42" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="32" t="s">
+        <v>112</v>
       </c>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:5" ht="58" x14ac:dyDescent="0.35">
       <c r="B43" s="21"/>
-      <c r="C43" s="47" t="s">
-        <v>129</v>
+      <c r="C43" s="36" t="s">
+        <v>113</v>
       </c>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B44" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C44" s="43" t="s">
-        <v>130</v>
+    <row r="44" spans="2:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="B44" s="21"/>
+      <c r="C44" s="36" t="s">
+        <v>114</v>
       </c>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="2:5" ht="58" x14ac:dyDescent="0.35">
       <c r="B45" s="21"/>
-      <c r="C45" s="47" t="s">
-        <v>131</v>
+      <c r="C45" s="36" t="s">
+        <v>115</v>
       </c>
       <c r="D45" s="8"/>
     </row>
-    <row r="46" spans="2:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="B46" s="21"/>
-      <c r="C46" s="47" t="s">
-        <v>132</v>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B46" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="32" t="s">
+        <v>116</v>
       </c>
       <c r="D46" s="8"/>
     </row>
     <row r="47" spans="2:5" ht="58" x14ac:dyDescent="0.35">
       <c r="B47" s="21"/>
-      <c r="C47" s="47" t="s">
-        <v>133</v>
+      <c r="C47" s="36" t="s">
+        <v>117</v>
       </c>
       <c r="D47" s="8"/>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B48" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C48" s="43" t="s">
-        <v>134</v>
+    <row r="48" spans="2:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="B48" s="21"/>
+      <c r="C48" s="36" t="s">
+        <v>118</v>
       </c>
       <c r="D48" s="8"/>
-    </row>
-    <row r="49" spans="2:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="B49" s="21"/>
-      <c r="C49" s="47" t="s">
-        <v>135</v>
-      </c>
-      <c r="D49" s="8"/>
-    </row>
-    <row r="50" spans="2:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="B50" s="21"/>
-      <c r="C50" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="D50" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="C19:C21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="D22:D23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="F13:F18"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="D3:D8"/>
+    <mergeCell ref="F3:F8"/>
+    <mergeCell ref="B3:B8"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="C13:C18"/>
     <mergeCell ref="A13:A18"/>
@@ -2077,16 +1843,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="E19:E21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="F13:F18"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="D3:D8"/>
-    <mergeCell ref="F3:F8"/>
-    <mergeCell ref="B3:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2095,10 +1851,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2111,14 +1867,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
@@ -2134,7 +1890,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>7</v>
@@ -2144,19 +1900,19 @@
       <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="73" t="s">
-        <v>54</v>
+      <c r="C3" s="56" t="s">
+        <v>53</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="68" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="73" t="s">
+      <c r="E3" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="56" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2164,226 +1920,216 @@
       <c r="A4" s="15">
         <v>2</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="69"/>
-      <c r="F4" s="74"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="57"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="15">
         <v>3</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
       <c r="D5" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="69"/>
-      <c r="F5" s="74"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="57"/>
     </row>
     <row r="6" spans="1:6" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15">
         <v>4</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
       <c r="D6" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="69"/>
-      <c r="F6" s="74"/>
-    </row>
-    <row r="7" spans="1:6" ht="71" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="15"/>
-      <c r="B7" s="74"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="70"/>
-      <c r="F7" s="75"/>
-    </row>
-    <row r="8" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E6" s="62"/>
+      <c r="F6" s="57"/>
+    </row>
+    <row r="7" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="15">
+        <v>6</v>
+      </c>
+      <c r="B7" s="57"/>
+      <c r="C7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="17">
+        <v>1800</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="15">
-        <v>6</v>
-      </c>
-      <c r="B8" s="74"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="57"/>
       <c r="C8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="15">
+        <v>630</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="15">
+        <v>8</v>
+      </c>
+      <c r="B9" s="57"/>
+      <c r="C9" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="17">
-        <v>1800</v>
-      </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="15">
-        <v>7</v>
-      </c>
-      <c r="B9" s="74"/>
-      <c r="C9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="15">
-        <v>630</v>
+      <c r="D9" s="15" t="s">
+        <v>54</v>
       </c>
       <c r="E9" s="19"/>
       <c r="F9" s="15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="15">
         <v>8</v>
       </c>
-      <c r="B10" s="74"/>
-      <c r="C10" s="73" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="15" t="s">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="14">
+        <v>9</v>
+      </c>
+      <c r="B10" s="58"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="14">
-        <v>9</v>
-      </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="14" t="s">
-        <v>8</v>
-      </c>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C12" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C13" s="79" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-    </row>
-    <row r="22" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="34" t="s">
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+    </row>
+    <row r="21" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="F22" s="36"/>
+      <c r="B21" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="25"/>
+    </row>
+    <row r="22" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="26">
+        <v>1</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="28"/>
+      <c r="D22" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="37">
-        <v>1</v>
-      </c>
-      <c r="B23" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" s="39"/>
-      <c r="D23" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="E23" s="38" t="s">
-        <v>91</v>
+      <c r="A23" s="68">
+        <v>2</v>
+      </c>
+      <c r="B23" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="81">
-        <v>2</v>
-      </c>
-      <c r="B24" s="83" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="E24" s="38" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="82"/>
-      <c r="B25" s="84"/>
-      <c r="C25" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="D25" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="E25" s="38" t="s">
-        <v>91</v>
+      <c r="A24" s="69"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="C13:F18"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C12:F17"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B3:B10"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="C9:C10"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D23" r:id="rId1"/>
-    <hyperlink ref="D25" r:id="rId2"/>
+    <hyperlink ref="D22" r:id="rId1"/>
+    <hyperlink ref="D24" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -2392,10 +2138,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2409,15 +2155,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="77" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
+      <c r="A1" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
@@ -2433,7 +2179,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>7</v>
@@ -2447,18 +2193,18 @@
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="68" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+      <c r="C3" s="61" t="s">
+        <v>68</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>48</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F3" s="73" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="56" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="11">
@@ -2469,32 +2215,32 @@
       <c r="A4" s="11">
         <v>2</v>
       </c>
-      <c r="B4" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="69"/>
+      <c r="B4" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="62"/>
       <c r="D4" s="11" t="s">
         <v>48</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F4" s="74"/>
+        <v>84</v>
+      </c>
+      <c r="F4" s="57"/>
       <c r="G4" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="15"/>
-      <c r="B5" s="41"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>49</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="15"/>
@@ -2503,15 +2249,15 @@
       <c r="A6" s="11">
         <v>6</v>
       </c>
-      <c r="B6" s="41"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>8</v>
@@ -2524,16 +2270,16 @@
       <c r="A7" s="11">
         <v>7</v>
       </c>
-      <c r="B7" s="41"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="G7" s="11">
         <v>1</v>
@@ -2543,12 +2289,12 @@
       <c r="A8" s="11">
         <v>8</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="73" t="s">
-        <v>105</v>
+      <c r="B8" s="30"/>
+      <c r="C8" s="56" t="s">
+        <v>90</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11" t="s">
@@ -2562,10 +2308,10 @@
       <c r="A9" s="10">
         <v>9</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="74"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="57"/>
       <c r="D9" s="10" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10" t="s">
@@ -2576,308 +2322,86 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B12" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="44">
+      <c r="B12" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="33">
         <v>500000</v>
       </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="F12" s="44">
+      <c r="D12" s="34"/>
+      <c r="E12" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="33">
         <v>500000</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B13" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="44">
+      <c r="B13" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="33">
         <v>12</v>
       </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="44">
+      <c r="D13" s="34"/>
+      <c r="E13" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="33">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B14" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="44">
+      <c r="B14" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="33">
         <f>C12/C13</f>
         <v>41666.666666666664</v>
       </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" s="44">
+      <c r="D14" s="34"/>
+      <c r="E14" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="33">
         <f>F12/F13</f>
         <v>41666.666666666664</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B15" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="44">
+      <c r="B15" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="33">
         <f>C14/(60*60)</f>
         <v>11.574074074074073</v>
       </c>
-      <c r="D15" s="45"/>
-      <c r="E15" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="44">
+      <c r="D15" s="34"/>
+      <c r="E15" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="33">
         <f>F14/(60*60)</f>
         <v>11.574074074074073</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="B16" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="45"/>
-      <c r="E16" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" s="46" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="85" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="86"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="88"/>
-    </row>
-    <row r="20" spans="2:7" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="22"/>
-      <c r="C20" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="23" t="s">
+      <c r="B16" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="28" t="s">
+      <c r="C16" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="G20" s="30" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="26">
-        <v>0.25</v>
-      </c>
-      <c r="D21" s="25">
-        <v>125000</v>
-      </c>
-      <c r="E21" s="25">
-        <v>10416.666666666666</v>
-      </c>
-      <c r="F21" s="29">
-        <v>2.8935185185185182</v>
-      </c>
-      <c r="G21" s="31">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="25" t="s">
+      <c r="D16" s="34"/>
+      <c r="E16" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="27">
-        <v>0.1</v>
-      </c>
-      <c r="D22" s="25">
-        <v>50000</v>
-      </c>
-      <c r="E22" s="25">
-        <v>4166.666666666667</v>
-      </c>
-      <c r="F22" s="29">
-        <v>1.1574074074074072</v>
-      </c>
-      <c r="G22" s="31">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="26">
-        <v>0.25</v>
-      </c>
-      <c r="D23" s="25">
-        <v>125000</v>
-      </c>
-      <c r="E23" s="25">
-        <v>10416.666666666666</v>
-      </c>
-      <c r="F23" s="29">
-        <v>2.8935185185185182</v>
-      </c>
-      <c r="G23" s="31">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="26">
-        <v>0.1</v>
-      </c>
-      <c r="D24" s="25">
-        <v>50000</v>
-      </c>
-      <c r="E24" s="25">
-        <v>4166.666666666667</v>
-      </c>
-      <c r="F24" s="29">
-        <v>1.1574074074074072</v>
-      </c>
-      <c r="G24" s="31">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="26">
-        <v>0.15</v>
-      </c>
-      <c r="D25" s="25">
-        <v>75000</v>
-      </c>
-      <c r="E25" s="25">
-        <v>6249.9999999999991</v>
-      </c>
-      <c r="F25" s="29">
-        <v>1.7361111111111109</v>
-      </c>
-      <c r="G25" s="31">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="26">
-        <v>0.15</v>
-      </c>
-      <c r="D26" s="25">
-        <v>75000</v>
-      </c>
-      <c r="E26" s="25">
-        <v>6249.9999999999991</v>
-      </c>
-      <c r="F26" s="29">
-        <v>1.7361111111111109</v>
-      </c>
-      <c r="G26" s="32">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="30" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="85" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="86"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="88"/>
-      <c r="G30" s="88"/>
-    </row>
-    <row r="31" spans="2:7" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="22"/>
-      <c r="C31" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="F31" s="28" t="s">
+      <c r="F16" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="G31" s="30" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="D32" s="25">
-        <v>250000</v>
-      </c>
-      <c r="E32" s="25">
-        <v>20833.333333333332</v>
-      </c>
-      <c r="F32" s="29">
-        <v>5.7870370370370363</v>
-      </c>
-      <c r="G32" s="31">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="D33" s="25">
-        <v>250000</v>
-      </c>
-      <c r="E33" s="25">
-        <v>20833.333333333332</v>
-      </c>
-      <c r="F33" s="29">
-        <v>5.7870370370370363</v>
-      </c>
-      <c r="G33" s="32">
-        <v>5000</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:G30"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="F3:F4"/>
